--- a/medicine/Mort/Forest_Lawn_Memorial_Park_(Hollywood_Hills)/Forest_Lawn_Memorial_Park_(Hollywood_Hills).xlsx
+++ b/medicine/Mort/Forest_Lawn_Memorial_Park_(Hollywood_Hills)/Forest_Lawn_Memorial_Park_(Hollywood_Hills).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Forest Lawn - Hollywood Hills Cemetery ou cimetière Forest Lawn de Hollywood Hills est situé au 6300 Forest Lawn Drive[1] à Los Angeles en Californie, sur le versant sud de la vallée de San Fernando près de Burbank. Entouré des studios Disney, Universal, Warner Bros., il est devenu le cimetière des stars de Hollywood, de nombreuses vedettes et de membres de l'industrie du cinéma américaine. Il est l'un des six cimetières des  Forest Lawn Memorial-Parks and Mortuaries[2], société chargée de l'administration des cimetières de la Californie du Sud[réf. nécessaire].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Forest Lawn - Hollywood Hills Cemetery ou cimetière Forest Lawn de Hollywood Hills est situé au 6300 Forest Lawn Drive à Los Angeles en Californie, sur le versant sud de la vallée de San Fernando près de Burbank. Entouré des studios Disney, Universal, Warner Bros., il est devenu le cimetière des stars de Hollywood, de nombreuses vedettes et de membres de l'industrie du cinéma américaine. Il est l'un des six cimetières des  Forest Lawn Memorial-Parks and Mortuaries, société chargée de l'administration des cimetières de la Californie du Sud[réf. nécessaire].
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Le mémorial</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Forest Lawn Memorial Parks est une institution culturelle de la région de Los Angeles. Le Forest Lawn - Hollywood Hills est un lieu consacré à la préservation de l'histoire américaine. Le parc comprend entre autres les points d'intérêts suivants :
 La Court of Liberty (« cour de la liberté »), qui présente des statues de George Washington et Thomas Jefferson ainsi que la Birth of Liberty Mosaic (« Mosaïque de la naissance de la liberté ») qui fait environ 50 mètres sur 9 m et est composée d'environ dix millions de pièces de verre de Venise représentant vingt-cinq scènes célèbres de l'histoire américaine de 1619 à 1787.
@@ -547,9 +561,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Forest Lawn de Glendale[3] fut fondé en 1917 par Hubert Eaton, qui croyait fermement à une vie joyeuse après la mort et pensait que les cimetières étaient des lieux trop déprimants. Il plaidait pour la création de lieux qui refléteraient sa vision optimiste de la mort. Il envisageait Forest Lawn comme un grand parc non pas peuplé de monuments macabres et d'autres signes de la mort terrestre mais un lieu rempli de grands arbres, de belles pelouses, de fontaines, de statues et d'un mémorial.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Forest Lawn de Glendale fut fondé en 1917 par Hubert Eaton, qui croyait fermement à une vie joyeuse après la mort et pensait que les cimetières étaient des lieux trop déprimants. Il plaidait pour la création de lieux qui refléteraient sa vision optimiste de la mort. Il envisageait Forest Lawn comme un grand parc non pas peuplé de monuments macabres et d'autres signes de la mort terrestre mais un lieu rempli de grands arbres, de belles pelouses, de fontaines, de statues et d'un mémorial.
 Le lieu n'accueille d'ailleurs pas uniquement des funérailles ; dans ses différentes chapelles, on célèbre également des mariages, comme celui de Ronald Reagan et de sa première épouse, l'actrice Jane Wyman.
 </t>
         </is>
@@ -579,7 +595,9 @@
           <t>Cimetière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi les grands du cinéma et les nombreuses vedettes qui sont inhumées dans un Forest Lawn Memorial Park, soit à Hollywood Hills, soit à Glendale :
 Robert Altman
